--- a/src/main/resources/poi/test.xlsx
+++ b/src/main/resources/poi/test.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="新シート" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="結合テスト" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -54,6 +55,27 @@
   </si>
   <si>
     <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">徳川</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尾張</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いちろう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">じろう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紀伊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さぶろう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">しろう</t>
   </si>
 </sst>
 </file>
@@ -68,6 +90,7 @@
       <sz val="10"/>
       <name val="ヒラギノ明朝 ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,6 +111,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,13 +156,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -166,7 +194,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -219,8 +247,91 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -229,65 +340,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/src/main/resources/poi/test.xlsx
+++ b/src/main/resources/poi/test.xlsx
@@ -82,8 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="M\月D\日"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -156,7 +157,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -166,6 +167,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,15 +333,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,6 +357,9 @@
       <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="D1" s="3" t="n">
+        <v>43154</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
@@ -356,6 +367,7 @@
       <c r="C2" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -365,6 +377,7 @@
       <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -372,11 +385,13 @@
       <c r="C4" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D4"/>
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/poi/test.xlsx
+++ b/src/main/resources/poi/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" state="visible" r:id="rId2"/>
@@ -157,13 +157,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -252,13 +260,15 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,10 +286,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -290,10 +300,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -304,10 +314,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -318,6 +328,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -335,8 +349,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,44 +362,44 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="5" t="n">
         <v>43154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/src/main/resources/poi/test.xlsx
+++ b/src/main/resources/poi/test.xlsx
@@ -115,15 +115,21 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF33"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -131,6 +137,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -157,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -166,19 +179,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -191,6 +220,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99FF33"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -261,69 +350,71 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -355,51 +446,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="n">
+      <c r="D1" s="9" t="n">
         <v>43154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/src/main/resources/poi/test.xlsx
+++ b/src/main/resources/poi/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -33,10 +33,16 @@
     <t xml:space="preserve">a</t>
   </si>
   <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
     <t xml:space="preserve">b</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -288,10 +294,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,13 +320,16 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -328,7 +337,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -349,16 +361,16 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.87"/>
   </cols>
   <sheetData>
@@ -381,13 +393,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,13 +407,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,13 +421,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -454,13 +466,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="9" t="n">
         <v>43154</v>
@@ -470,17 +482,17 @@
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="9"/>
     </row>
@@ -488,7 +500,7 @@
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="9"/>
     </row>
